--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421257.5923061679</v>
+        <v>510932.743846119</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>151.4321794679299</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>329.1350295130025</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>59.72683757586863</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>278.7528771643818</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>226.3487692937138</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>280.8393229601645</v>
+        <v>286.5373799218025</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.3902575986303</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>40.91143958001541</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>49.38162151975434</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111319</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>8.070639042240776</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.900916560955907</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2135,10 +2135,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>62.74236544294445</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>132.5906791667252</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784709</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>132.5458306592377</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,13 +2533,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>80.42916862427749</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>169.1477376595842</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>107.9558232531341</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274057</v>
+        <v>81.77913505274088</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>15.48989591881917</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>108.4625394254894</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>155.8385935972308</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3718,16 +3718,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>225.6865628169633</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>204.1291651532057</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>154.9155041809606</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>169.1477376595846</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>122.3137095599317</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>23.54872654977517</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2302.336936304455</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C2" t="n">
-        <v>1933.374419364044</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.108720757293</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>1189.320468159049</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>778.3345633694414</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>360.3707552676283</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2302.336936304455</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>2302.336936304455</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y2" t="n">
-        <v>2302.336936304455</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.927233509</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>763.2387982879728</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.527073573122</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.14692331494</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.14692331494</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.422847177208</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.746763379062</v>
+        <v>865.4521307355028</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95.26766826482447</v>
+        <v>368.9169416640003</v>
       </c>
       <c r="C10" t="n">
-        <v>95.26766826482447</v>
+        <v>368.9169416640003</v>
       </c>
       <c r="D10" t="n">
-        <v>95.26766826482447</v>
+        <v>368.9169416640003</v>
       </c>
       <c r="E10" t="n">
-        <v>95.26766826482447</v>
+        <v>221.0038480816072</v>
       </c>
       <c r="F10" t="n">
-        <v>95.26766826482447</v>
+        <v>221.0038480816072</v>
       </c>
       <c r="G10" t="n">
-        <v>95.26766826482447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>95.26766826482447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>95.26766826482447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628418</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>323.2572191628418</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>323.2572191628418</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>323.2572191628418</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X10" t="n">
-        <v>95.26766826482447</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y10" t="n">
-        <v>95.26766826482447</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>510.3034215191122</v>
       </c>
       <c r="M12" t="n">
-        <v>1604.839867667473</v>
+        <v>1278.671567911574</v>
       </c>
       <c r="N12" t="n">
-        <v>1949.360523305091</v>
+        <v>1623.192223549192</v>
       </c>
       <c r="O12" t="n">
-        <v>1949.360523305091</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2469.661145040838</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5230,19 +5230,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>392.0201325405893</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805482</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>452.5377573864724</v>
+        <v>904.3916683255102</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.288466700114</v>
+        <v>1357.551052309181</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.809122337732</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>216.9038434870664</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>216.9038434870664</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>216.9038434870664</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655744</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286139</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028583</v>
+        <v>437.6964226305965</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>216.9038434870664</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643325</v>
@@ -5537,28 +5537,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
         <v>358.2718071316295</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M18" t="n">
-        <v>1442.339749591389</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N18" t="n">
-        <v>2122.782055165496</v>
+        <v>2283.893885873787</v>
       </c>
       <c r="O18" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5628,7 +5628,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>268.0733921265321</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>99.13720919862519</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>99.13720919862519</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>99.13720919862519</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>99.13720919862519</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>99.13720919862519</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>898.5039869983193</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>670.514436100302</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>449.7218569567718</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,13 +5747,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5783,13 +5783,13 @@
         <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047986</v>
+        <v>469.5954827887332</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061688</v>
+        <v>699.5585886570824</v>
       </c>
       <c r="M21" t="n">
-        <v>1429.324563341649</v>
+        <v>1019.893908186784</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1364.414563824402</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028589</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.921157035281</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488389</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="X22" t="n">
-        <v>318.009670603816</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028589</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5984,25 +5984,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6011,28 +6011,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571611</v>
+        <v>264.0657286834809</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>494.02883455183</v>
       </c>
       <c r="M24" t="n">
-        <v>1960.904877141229</v>
+        <v>1089.288466700114</v>
       </c>
       <c r="N24" t="n">
-        <v>2305.425532778847</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O24" t="n">
-        <v>2554.178946862809</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028589</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6239,31 +6239,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571611</v>
+        <v>538.990041302063</v>
       </c>
       <c r="L27" t="n">
-        <v>904.3916683255102</v>
+        <v>768.9531471704122</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.726987855212</v>
+        <v>1089.288466700114</v>
       </c>
       <c r="N27" t="n">
-        <v>2029.138566119363</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O27" t="n">
-        <v>2371.535469249458</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6485,22 +6485,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,22 +6543,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>222.5746515181232</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L30" t="n">
-        <v>452.5377573864724</v>
+        <v>476.2498815306948</v>
       </c>
       <c r="M30" t="n">
-        <v>1019.893908186784</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.414563824402</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>2033.878325127062</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.178946862809</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3925.661817631304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3925.661817631304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3925.661817631304</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>4437.14914771935</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="U31" t="n">
-        <v>4437.14914771935</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V31" t="n">
-        <v>4437.14914771935</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W31" t="n">
-        <v>4328.102861605073</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>4328.102861605073</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>4107.310282461543</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6677,43 +6677,43 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6722,13 +6722,13 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
         <v>4262.357857465302</v>
@@ -6737,7 +6737,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704857</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L33" t="n">
-        <v>1002.792923427374</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M33" t="n">
-        <v>1310.113056707336</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N33" t="n">
-        <v>1639.975684371369</v>
+        <v>1402.926441340468</v>
       </c>
       <c r="O33" t="n">
-        <v>1919.515749590066</v>
+        <v>2072.390202643127</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3922.894617924886</v>
+        <v>579.0685056491533</v>
       </c>
       <c r="C34" t="n">
-        <v>3753.958434996979</v>
+        <v>579.0685056491533</v>
       </c>
       <c r="D34" t="n">
-        <v>3753.958434996979</v>
+        <v>428.9518662368174</v>
       </c>
       <c r="E34" t="n">
-        <v>3606.045341414586</v>
+        <v>281.0387726544242</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>281.0387726544242</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>112.8634509742446</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T34" t="n">
-        <v>4440.301338859864</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U34" t="n">
-        <v>4440.301338859864</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="V34" t="n">
-        <v>4440.301338859864</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="W34" t="n">
-        <v>4150.884168822903</v>
+        <v>1209.499100520941</v>
       </c>
       <c r="X34" t="n">
-        <v>3922.894617924886</v>
+        <v>981.5095496229234</v>
       </c>
       <c r="Y34" t="n">
-        <v>3922.894617924886</v>
+        <v>760.7169704793931</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6947,40 +6947,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="K36" t="n">
-        <v>222.5746515181232</v>
+        <v>2459.85571915628</v>
       </c>
       <c r="L36" t="n">
-        <v>836.471721275012</v>
+        <v>2689.818825024629</v>
       </c>
       <c r="M36" t="n">
-        <v>1387.765035414674</v>
+        <v>3458.186971417091</v>
       </c>
       <c r="N36" t="n">
-        <v>2192.176613678825</v>
+        <v>4262.598549681242</v>
       </c>
       <c r="O36" t="n">
-        <v>2440.930027762787</v>
+        <v>4608.816536887613</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>4791.460014500964</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
         <v>507.4972331799365</v>
@@ -7120,25 +7120,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765191</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706323</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336716</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>222.5746515181233</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L39" t="n">
-        <v>452.5377573864724</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="M39" t="n">
-        <v>1220.905903778934</v>
+        <v>1180.97612420717</v>
       </c>
       <c r="N39" t="n">
-        <v>2025.317482043085</v>
+        <v>1525.496779844788</v>
       </c>
       <c r="O39" t="n">
-        <v>2371.535469249458</v>
+        <v>2194.960541147447</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2399.983021929657</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
         <v>507.4972331799365</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383447</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>447.040877970705</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W40" t="n">
-        <v>447.040877970705</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="X40" t="n">
-        <v>447.040877970705</v>
+        <v>303.4081673726149</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7430,31 +7430,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
         <v>222.5746515181233</v>
       </c>
       <c r="L42" t="n">
-        <v>836.471721275012</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M42" t="n">
-        <v>1604.839867667474</v>
+        <v>772.8730769161742</v>
       </c>
       <c r="N42" t="n">
-        <v>2122.782055165496</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O42" t="n">
-        <v>2371.535469249458</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028589</v>
+        <v>582.2416896507652</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028589</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028589</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
         <v>507.4972331799365</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.921157035281</v>
+        <v>1342.435963304407</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.921157035281</v>
+        <v>1053.307324517966</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>1053.307324517966</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>763.890154481005</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>763.890154481005</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905256</v>
+        <v>763.890154481005</v>
       </c>
     </row>
     <row r="44">
@@ -7637,43 +7637,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7682,13 +7682,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614725</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>508.1073603047986</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L45" t="n">
-        <v>738.0704661731477</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M45" t="n">
-        <v>1506.438612565609</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N45" t="n">
-        <v>1850.959268203227</v>
+        <v>1835.861059011027</v>
       </c>
       <c r="O45" t="n">
-        <v>2099.712682287189</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028589</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028589</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
         <v>507.4972331799365</v>
@@ -7840,16 +7840,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1186.001039296941</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W46" t="n">
-        <v>896.58386925998</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X46" t="n">
-        <v>668.5943183619627</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.8017392184325</v>
+        <v>665.6859735286137</v>
       </c>
     </row>
   </sheetData>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,10 +8781,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119865</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,13 +9732,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9972,10 +9972,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10206,13 +10206,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10917,13 +10917,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,10 +11394,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>176.3280338692828</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>138.3633236043284</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>147.0129118065802</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>189.3952778808836</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>85.99397418536958</v>
       </c>
     </row>
     <row r="23">
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>13.88813198733149</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>206.0938297123135</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>52.3998233988051</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -24898,10 +24898,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>178.5671750834569</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>133.4239324487171</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T34" t="n">
-        <v>113.0850216328999</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25360,25 +25360,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>130.6844047393602</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,16 +25606,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>26.45108050686471</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>14.45548819888904</v>
       </c>
     </row>
     <row r="41">
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>66.63205687742868</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>82.98990566424339</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>44.93311153869614</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26080,16 +26080,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>228.5889167740528</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="11">
@@ -26314,46 +26314,46 @@
         <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934482</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934489</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="L2" t="n">
         <v>606095.0425934489</v>
-      </c>
-      <c r="L2" t="n">
-        <v>606095.0425934488</v>
       </c>
       <c r="M2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="N2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="O2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.042593449</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,10 +26378,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.869591415015748e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.641531071072677e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758697</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905759314</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758697</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758024</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905757878</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="J4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="L4" t="n">
+        <v>787.7936905757281</v>
+      </c>
+      <c r="M4" t="n">
+        <v>787.7936905757997</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758696</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758696</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758693</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758012</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758012</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758696</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26500,16 +26500,16 @@
         <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-175578.7248137532</v>
+        <v>-175578.724813753</v>
       </c>
       <c r="C6" t="n">
-        <v>414389.1544007915</v>
+        <v>414389.1544007913</v>
       </c>
       <c r="D6" t="n">
-        <v>414389.1544007912</v>
+        <v>414389.154400791</v>
       </c>
       <c r="E6" t="n">
-        <v>-11840.11352273975</v>
+        <v>-11840.11352274043</v>
       </c>
       <c r="F6" t="n">
-        <v>513319.9229541559</v>
+        <v>513319.922954156</v>
       </c>
       <c r="G6" t="n">
-        <v>513319.922954156</v>
+        <v>513319.9229541561</v>
       </c>
       <c r="H6" t="n">
-        <v>513319.9229541557</v>
+        <v>513319.9229541564</v>
       </c>
       <c r="I6" t="n">
         <v>513319.9229541562</v>
@@ -26546,22 +26546,22 @@
         <v>336896.7037615632</v>
       </c>
       <c r="K6" t="n">
-        <v>513319.9229541564</v>
+        <v>513319.9229541559</v>
       </c>
       <c r="L6" t="n">
-        <v>513319.9229541562</v>
+        <v>513319.9229541565</v>
       </c>
       <c r="M6" t="n">
-        <v>378518.9077203191</v>
+        <v>378518.9077203189</v>
       </c>
       <c r="N6" t="n">
-        <v>513319.9229541562</v>
+        <v>513319.922954156</v>
       </c>
       <c r="O6" t="n">
         <v>513319.922954156</v>
       </c>
       <c r="P6" t="n">
-        <v>513319.9229541562</v>
+        <v>513319.9229541565</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,25 +26744,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541004</v>
@@ -26799,16 +26799,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="G4" t="n">
         <v>1215.213643253573</v>
       </c>
-      <c r="G4" t="n">
-        <v>1215.213643253574</v>
-      </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26817,19 +26817,19 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>1215.213643253573</v>
       </c>
-      <c r="N4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1215.213643253574</v>
-      </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>172.4905932964272</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>57.10290914305108</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>107.5829646831823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>86.52001460662575</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.4354007270811</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>105.3986156958891</v>
+        <v>99.70055873425105</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>1.919544660420598</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>4.288519608521597</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.506350599811412e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.506350599811412e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,7 +31376,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31613,7 +31613,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>254.0363329748089</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.37151699188962</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>319.6115048322625</v>
+        <v>134.1657216706755</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32102,13 +32102,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32315,34 +32315,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>339.3147979156454</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>91.84465193776663</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,16 +32552,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>249.5159911824343</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>231.6435684109397</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855527</v>
@@ -32570,7 +32570,7 @@
         <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32710,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>355.8019448459365</v>
+        <v>277.7013258773558</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32947,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,13 +33020,13 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>151.6102905369469</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -33035,25 +33035,25 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>94.58938287488166</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,34 +33257,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>249.5159911824343</v>
+        <v>61.57331465605915</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,31 +33497,31 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>228.5907685424315</v>
+        <v>302.1669359659911</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33667,7 +33667,7 @@
         <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927169</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
         <v>562.4526372540887</v>
@@ -33740,25 +33740,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>233.2909036464247</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>98.44906376000949</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33971,31 +33971,31 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>98.44906376001109</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>155.7534595284364</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34153,7 +34153,7 @@
         <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104651</v>
@@ -34208,31 +34208,31 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>175.173264505459</v>
+        <v>362.5890066571936</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34372,7 +34372,7 @@
         <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304433</v>
       </c>
       <c r="M44" t="n">
         <v>586.162349956552</v>
@@ -34448,28 +34448,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>359.9147016846441</v>
       </c>
       <c r="P45" t="n">
-        <v>46.57366480796387</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>505.302407807094</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>155.4670306417172</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>643.1825346602441</v>
+        <v>457.7367514986571</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081142</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>687.3154601758656</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>343.1107267700517</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>376.1397892206539</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>100.3018563276064</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>679.3729746739181</v>
+        <v>601.2723557053374</v>
       </c>
       <c r="N24" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>278.2340885751665</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,16 +36683,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>345.8554577071667</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>573.0870210104159</v>
+        <v>385.1443444840407</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>413.0791297680385</v>
+        <v>486.655297191598</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655654</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299104</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799284</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187463</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081101</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951473</v>
@@ -37388,22 +37388,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>556.8619334744063</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>349.7151385922946</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>349.7151385922962</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>225.848973178264</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>523.1739267656792</v>
+        <v>710.5896689174139</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109065</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221118</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>611.1807765169292</v>
       </c>
       <c r="P45" t="n">
-        <v>231.0620260335708</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2916202.287426251</v>
+        <v>2991731.957091055</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>510932.743846119</v>
+        <v>689151.363683517</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>117.794590892934</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>329.1350295130025</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -804,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.1060804925961838</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>141.0458982607227</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>226.3487692937138</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.46079155833878</v>
+        <v>194.0270836661628</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>92.1347270075933</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>286.5373799218025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.3902575986303</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>206.3517689015295</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>61.52005261340975</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.287249111319</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>8.070639042240776</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>78.99509893178144</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1898,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>27.78541139177218</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>132.5906791667252</v>
+        <v>76.51130099392724</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2374,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>132.5458306592377</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2493,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.8811370504512387</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>80.42916862427749</v>
+        <v>187.3672409628991</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>169.1477376595842</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>268.0704980719007</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274088</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>15.48989591881917</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>218.584393053837</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>67.25862003346604</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>155.8385935972308</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3518,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>30.73852153117338</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>204.1291651532057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3898,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>42.41159191917706</v>
       </c>
       <c r="T43" t="n">
-        <v>154.9155041809606</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>122.3137095599317</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4186,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>119.5057742900022</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.855211652197</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4363,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>2324.402870410926</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>1950.937112149846</v>
       </c>
       <c r="Y2" t="n">
-        <v>1638.455051716319</v>
+        <v>1560.797780174034</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,7 +4412,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>516.956448217093</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.6049130473327</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.6049130473327</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>698.6049130473327</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>698.6049130473327</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.6049130473327</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.6049130473327</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.6049130473327</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.146815977588</v>
+        <v>979.5885935818919</v>
       </c>
       <c r="C5" t="n">
-        <v>770.1842990371763</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>770.1842990371763</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>770.1842990371763</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>763.2387982879728</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,13 +4573,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4758,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>643.7011644960776</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V7" t="n">
-        <v>389.0166762901907</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>478.8522906713811</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2372.877533047135</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>2119.115747685226</v>
       </c>
       <c r="Y8" t="n">
-        <v>865.4521307355028</v>
+        <v>2119.115747685226</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
+        <v>53.94298182036422</v>
+      </c>
+      <c r="J9" t="n">
         <v>53.94298182036445</v>
       </c>
-      <c r="J9" t="n">
-        <v>129.2001442204943</v>
-      </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.9169416640003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>368.9169416640003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>368.9169416640003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>221.0038480816072</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>221.0038480816072</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4986,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942401</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.5654064942401</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,28 +5026,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5054,16 +5056,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>263.5382936126482</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>510.3034215191122</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>1278.671567911574</v>
+        <v>1689.561836756087</v>
       </c>
       <c r="N12" t="n">
-        <v>1623.192223549192</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>692.753134944335</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1090.100879744681</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>754.8946022306075</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805482</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5288,40 +5290,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>904.3916683255102</v>
+        <v>660.3780132492466</v>
       </c>
       <c r="M15" t="n">
-        <v>1357.551052309181</v>
+        <v>980.7133327789484</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.071707946799</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O15" t="n">
-        <v>2371.535469249458</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P15" t="n">
         <v>2554.178946862809</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>216.9038434870664</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>216.9038434870664</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>216.9038434870664</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1108.128127811259</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1108.128127811259</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655744</v>
+        <v>1108.128127811259</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286139</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305965</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.9038434870664</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5494,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5513,28 +5515,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5546,13 +5548,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5595,22 +5597,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>246.2867756623458</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171746</v>
+        <v>860.1838454192346</v>
       </c>
       <c r="M18" t="n">
-        <v>1479.482307609636</v>
+        <v>1180.519164948936</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.893885873787</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>739.1390269937332</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>570.2028440658263</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>420.0862046534905</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>272.1731110710974</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>125.2831635731871</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>125.2831635731871</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>125.2831635731871</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5680,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>959.9316061372633</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>739.1390269937332</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5731,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5750,10 +5752,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5771,16 +5773,16 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465302</v>
@@ -5832,22 +5834,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>469.5954827887332</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L21" t="n">
-        <v>699.5585886570824</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1019.893908186784</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N21" t="n">
-        <v>1364.414563824402</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O21" t="n">
-        <v>2033.878325127062</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P21" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>3606.045341414586</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347409</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347409</v>
+        <v>4382.384669597912</v>
       </c>
       <c r="W22" t="n">
-        <v>1275.130855347409</v>
+        <v>4092.967499560951</v>
       </c>
       <c r="X22" t="n">
-        <v>1275.130855347409</v>
+        <v>3864.977948662934</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.200876391121</v>
+        <v>3787.693806244826</v>
       </c>
     </row>
     <row r="23">
@@ -5987,34 +5989,34 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="K24" t="n">
-        <v>264.0657286834809</v>
+        <v>2459.855719156279</v>
       </c>
       <c r="L24" t="n">
-        <v>494.02883455183</v>
+        <v>3073.752788913168</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.288466700114</v>
+        <v>3842.120935305629</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.809122337732</v>
+        <v>4186.641590943247</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>4435.39500502721</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>4780.830002403663</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916993</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.5850465240057</v>
+        <v>3923.023794101857</v>
       </c>
       <c r="C25" t="n">
-        <v>696.5850465240057</v>
+        <v>3923.023794101857</v>
       </c>
       <c r="D25" t="n">
-        <v>696.5850465240057</v>
+        <v>3923.023794101857</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>3775.110700519464</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>3628.220753021553</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>3460.045431341374</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>3460.045431341374</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="V25" t="n">
-        <v>986.0022165609664</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="W25" t="n">
-        <v>696.5850465240057</v>
+        <v>4371.805924143404</v>
       </c>
       <c r="X25" t="n">
-        <v>696.5850465240057</v>
+        <v>4143.816373245387</v>
       </c>
       <c r="Y25" t="n">
-        <v>696.5850465240057</v>
+        <v>3923.023794101857</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,16 +6223,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="K27" t="n">
-        <v>538.990041302063</v>
+        <v>2459.85571915628</v>
       </c>
       <c r="L27" t="n">
-        <v>768.9531471704122</v>
+        <v>3073.752788913169</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.288466700114</v>
+        <v>3842.12093530563</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.809122337732</v>
+        <v>3842.12093530563</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>4360.72267491637</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>4565.74515569858</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.6350999123426</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C28" t="n">
-        <v>247.6350999123426</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>844.0280401273998</v>
       </c>
       <c r="W28" t="n">
-        <v>650.0761438861124</v>
+        <v>654.768200770936</v>
       </c>
       <c r="X28" t="n">
-        <v>650.0761438861124</v>
+        <v>426.7786498729187</v>
       </c>
       <c r="Y28" t="n">
-        <v>429.2835647425823</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6470,19 +6472,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,22 +6545,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>246.2867756623457</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>476.2498815306948</v>
+        <v>686.894136986605</v>
       </c>
       <c r="M30" t="n">
-        <v>857.5427825698952</v>
+        <v>1455.262283379067</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
         <v>97.21709146028584</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1017.064856369034</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>1017.064856369034</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6731,19 +6733,19 @@
         <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6779,22 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047986</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L33" t="n">
-        <v>738.0704661731477</v>
+        <v>877.4353633695371</v>
       </c>
       <c r="M33" t="n">
-        <v>1058.405785702849</v>
+        <v>1184.755496649499</v>
       </c>
       <c r="N33" t="n">
-        <v>1402.926441340468</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O33" t="n">
-        <v>2072.390202643127</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P33" t="n">
         <v>2554.178946862809</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>579.0685056491533</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C34" t="n">
-        <v>579.0685056491533</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D34" t="n">
-        <v>428.9518662368174</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E34" t="n">
-        <v>281.0387726544242</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F34" t="n">
-        <v>281.0387726544242</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>112.8634509742446</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028589</v>
@@ -6856,52 +6858,52 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557901</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557901</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557901</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557901</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.499100520941</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="X34" t="n">
-        <v>981.5095496229234</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>760.7169704793931</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003442</v>
@@ -6923,19 +6925,19 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6959,28 +6961,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>2459.85571915628</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L36" t="n">
-        <v>2689.818825024629</v>
+        <v>550.0023305088835</v>
       </c>
       <c r="M36" t="n">
-        <v>3458.186971417091</v>
+        <v>1318.370476901345</v>
       </c>
       <c r="N36" t="n">
-        <v>4262.598549681242</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O36" t="n">
-        <v>4608.816536887613</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P36" t="n">
-        <v>4791.460014500964</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711.072954880832</v>
+        <v>613.8011874802287</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>444.8650045523218</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405894</v>
+        <v>444.8650045523218</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581963</v>
+        <v>444.8650045523218</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
         <v>507.4972331799365</v>
@@ -7129,16 +7131,16 @@
         <v>1498.916270557903</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557903</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W37" t="n">
-        <v>1341.503549752619</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.513998854602</v>
+        <v>1016.242231453999</v>
       </c>
       <c r="Y37" t="n">
-        <v>892.7214197110717</v>
+        <v>795.4496523104684</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147082</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L39" t="n">
-        <v>412.6079778147082</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M39" t="n">
-        <v>1180.97612420717</v>
+        <v>1080.303607295999</v>
       </c>
       <c r="N39" t="n">
-        <v>1525.496779844788</v>
+        <v>1884.71518556015</v>
       </c>
       <c r="O39" t="n">
-        <v>2194.960541147447</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P39" t="n">
-        <v>2399.983021929657</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>3888.981946387241</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>3888.981946387241</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>3738.865306974906</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>3738.865306974906</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>3738.865306974906</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294726</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294726</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916674</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625195</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636324</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403507</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706323</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="W40" t="n">
-        <v>531.3977182706323</v>
+        <v>4148.020508932908</v>
       </c>
       <c r="X40" t="n">
-        <v>303.4081673726149</v>
+        <v>3920.030958034891</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>3920.030958034891</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7400,55 +7402,55 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>2500.819361250802</v>
       </c>
       <c r="K42" t="n">
-        <v>222.5746515181233</v>
+        <v>2594.15320799016</v>
       </c>
       <c r="L42" t="n">
-        <v>452.5377573864724</v>
+        <v>3208.050277747049</v>
       </c>
       <c r="M42" t="n">
-        <v>772.8730769161742</v>
+        <v>3976.418424139511</v>
       </c>
       <c r="N42" t="n">
-        <v>1476.356849144414</v>
+        <v>4780.830002403662</v>
       </c>
       <c r="O42" t="n">
-        <v>2145.820610447073</v>
+        <v>4780.830002403662</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>4780.830002403662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916991</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.2416896507652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C43" t="n">
-        <v>413.3055067228584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D43" t="n">
-        <v>413.3055067228584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1456.07627872035</v>
       </c>
       <c r="T43" t="n">
-        <v>1342.435963304407</v>
+        <v>1232.290863509856</v>
       </c>
       <c r="U43" t="n">
-        <v>1053.307324517966</v>
+        <v>943.1622247234138</v>
       </c>
       <c r="V43" t="n">
-        <v>1053.307324517966</v>
+        <v>943.1622247234138</v>
       </c>
       <c r="W43" t="n">
-        <v>763.890154481005</v>
+        <v>653.7450546864533</v>
       </c>
       <c r="X43" t="n">
-        <v>763.890154481005</v>
+        <v>425.7555037884359</v>
       </c>
       <c r="Y43" t="n">
-        <v>763.890154481005</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,61 +7639,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L45" t="n">
-        <v>711.1141612171746</v>
+        <v>877.435363369537</v>
       </c>
       <c r="M45" t="n">
-        <v>1031.449480746876</v>
+        <v>1645.803509761999</v>
       </c>
       <c r="N45" t="n">
-        <v>1835.861059011027</v>
+        <v>1990.324165399617</v>
       </c>
       <c r="O45" t="n">
-        <v>2440.930027762787</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>665.6859735286137</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
@@ -7834,22 +7836,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655742</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286137</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286137</v>
+        <v>575.8721432007717</v>
       </c>
       <c r="Y46" t="n">
-        <v>665.6859735286137</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,13 +8780,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9027,7 +9029,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9252,19 +9254,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>299.177121105123</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>165.7024187025502</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9501,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,10 +9737,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9963,19 +9965,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>241.4764387798412</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,19 +10202,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>273.2391785147148</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>208.1011223657914</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10686,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10917,13 +10919,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>232.1180518423976</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,16 +11153,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>118.3119275685276</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>103.0576765518773</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>138.3633236043284</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>142.5524621266078</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>82.63383407249978</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.99397418536958</v>
+        <v>142.0733523581675</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.88813198733149</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>109.5381084138207</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>206.0938297123135</v>
+        <v>99.15575737369187</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>52.3998233988051</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>18.16685432667663</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>133.4239324487171</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836034</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985775</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>7.125262335200176</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>78.1624279894652</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>130.6844047393602</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>149.0934586507639</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>14.45548819888904</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25834,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>155.5092180644262</v>
       </c>
       <c r="T43" t="n">
-        <v>66.63205687742868</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>44.93311153869614</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26074,19 +26076,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>106.203881099035</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="I2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="J2" t="n">
+        <v>606095.0425934482</v>
+      </c>
+      <c r="K2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="K2" t="n">
-        <v>606095.0425934484</v>
-      </c>
       <c r="L2" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="N2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.042593449</v>
+        <v>606095.0425934484</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,10 +26426,10 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="F4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="F4" t="n">
-        <v>787.7936905758697</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758694</v>
@@ -26439,25 +26441,25 @@
         <v>787.7936905758693</v>
       </c>
       <c r="J4" t="n">
+        <v>787.7936905757946</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>787.7936905757946</v>
+      </c>
+      <c r="M4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="N4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="O4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905757281</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905757997</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758696</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758696</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871665</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-175578.724813753</v>
+        <v>-175578.7248137534</v>
       </c>
       <c r="C6" t="n">
         <v>414389.1544007913</v>
@@ -26528,40 +26530,40 @@
         <v>414389.154400791</v>
       </c>
       <c r="E6" t="n">
-        <v>-11840.11352274043</v>
+        <v>-11840.11352274049</v>
       </c>
       <c r="F6" t="n">
-        <v>513319.922954156</v>
+        <v>513319.9229541562</v>
       </c>
       <c r="G6" t="n">
         <v>513319.9229541561</v>
       </c>
       <c r="H6" t="n">
-        <v>513319.9229541564</v>
+        <v>513319.9229541559</v>
       </c>
       <c r="I6" t="n">
+        <v>513319.922954156</v>
+      </c>
+      <c r="J6" t="n">
+        <v>336896.7037615627</v>
+      </c>
+      <c r="K6" t="n">
         <v>513319.9229541562</v>
       </c>
-      <c r="J6" t="n">
-        <v>336896.7037615632</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>513319.9229541561</v>
+      </c>
+      <c r="M6" t="n">
+        <v>378518.9077203191</v>
+      </c>
+      <c r="N6" t="n">
+        <v>513319.9229541562</v>
+      </c>
+      <c r="O6" t="n">
+        <v>513319.9229541562</v>
+      </c>
+      <c r="P6" t="n">
         <v>513319.9229541559</v>
-      </c>
-      <c r="L6" t="n">
-        <v>513319.9229541565</v>
-      </c>
-      <c r="M6" t="n">
-        <v>378518.9077203189</v>
-      </c>
-      <c r="N6" t="n">
-        <v>513319.922954156</v>
-      </c>
-      <c r="O6" t="n">
-        <v>513319.922954156</v>
-      </c>
-      <c r="P6" t="n">
-        <v>513319.9229541565</v>
       </c>
     </row>
   </sheetData>
@@ -26744,25 +26746,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541004</v>
@@ -26796,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="F4" t="n">
         <v>1215.213643253573</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26822,7 @@
         <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>231.446377824479</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>57.10290914305108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>212.0394584574227</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>224.2269935102849</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>187.4354007270811</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>231.821082683639</v>
+        <v>92.25479057581495</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>124.3135933500645</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>99.70055873425105</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>1.919544660420598</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>12.23288445056531</v>
       </c>
     </row>
     <row r="11">
@@ -29281,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-1.648459146963432e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29755,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-1.648459146963432e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,7 +31378,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31612,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31753,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>251.1413379101921</v>
       </c>
       <c r="O12" t="n">
-        <v>254.0363329748089</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -31996,40 +31998,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927178</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32074,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>209.9396523866405</v>
       </c>
       <c r="M15" t="n">
-        <v>134.1657216706755</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855528</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,34 +32311,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>91.84465193776663</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,13 +32551,13 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>249.5159911824343</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -32567,19 +32569,19 @@
         <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>277.7013258773558</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>164.4358785485888</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,34 +33022,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>151.6102905369469</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565502</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>363.3474137959294</v>
       </c>
       <c r="M30" t="n">
-        <v>61.57331465605915</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,25 +33499,25 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>302.1669359659911</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33734,13 +33736,13 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724847</v>
@@ -33749,7 +33751,7 @@
         <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>98.44906376000949</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33758,7 +33760,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33898,7 +33900,7 @@
         <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304415</v>
       </c>
       <c r="M38" t="n">
         <v>586.162349956552</v>
@@ -33971,31 +33973,31 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>49.34760257487113</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>155.7534595284364</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34129,7 +34131,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961188</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041489</v>
@@ -34208,28 +34210,28 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>362.5890066571936</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34369,10 +34371,10 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304433</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
         <v>586.162349956552</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34454,13 +34456,13 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>359.9147016846441</v>
+        <v>377.6423371669287</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>119.7996258268588</v>
       </c>
       <c r="O12" t="n">
-        <v>505.302407807094</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408111</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>442.2256179102255</v>
       </c>
       <c r="M15" t="n">
-        <v>457.7367514986571</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35811,19 +35813,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303323</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>167.8354090217897</v>
       </c>
       <c r="O18" t="n">
-        <v>343.1107267700517</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36130,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>376.1397892206539</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>34.36070661921693</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>601.2723557053374</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>348.9242397741958</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>278.2340885751665</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>523.8401410209494</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>595.6333793195143</v>
       </c>
       <c r="M30" t="n">
-        <v>385.1443444840407</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>606.4337519127278</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>486.655297191598</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655654</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187463</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>457.3588273218157</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
@@ -37397,7 +37399,7 @@
         <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>349.7151385922946</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37546,7 +37548,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109047</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>372.9186324028527</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
         <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>225.848973178264</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>94.27661286803864</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>710.5896689174139</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,10 +38019,10 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109065</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221118</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>611.1807765169292</v>
+        <v>628.9084119992137</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2984714.942199343</v>
+        <v>2989654.205048375</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>587457.4629679048</v>
+        <v>556660.0081409691</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>318.3478051693988</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>244.9434506432067</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>9.27559683049698</v>
+        <v>265.9465450380998</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>301.0683539834542</v>
+        <v>355.546756558266</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>261.9025067912348</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>68.2276977578159</v>
       </c>
     </row>
     <row r="8">
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806814</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>8.62708465845755</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="14">
@@ -1615,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F14" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.562624396425326</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.68762643336706</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648052004</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>177.6778654977379</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,10 +2086,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>280.6272750431719</v>
       </c>
       <c r="X22" t="n">
-        <v>84.383424078414</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648052004</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.5752847581511</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.153727875004</v>
+        <v>188.1607094910709</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>107.0005394720325</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>225.7289864279117</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>95.02525064967696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1299.526533804879</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C2" t="n">
-        <v>1299.526533804879</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>856.1671173543212</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4327,16 +4327,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>2449.731464105892</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>2076.265705844813</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1686.126373869001</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>113.6371076753676</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>368.8844281164661</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>773.500346212138</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.647259770169</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="U4" t="n">
-        <v>99.5995062532301</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>99.5995062532301</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>99.5995062532301</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1882.054803223514</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C5" t="n">
-        <v>1513.092286283102</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D5" t="n">
-        <v>1154.826587676352</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E5" t="n">
-        <v>769.0383350781076</v>
+        <v>824.0670245476144</v>
       </c>
       <c r="F5" t="n">
-        <v>358.0524302885</v>
+        <v>413.0811197580069</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>463.5809975486215</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>807.3934508328825</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>396.407546043275</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4846,10 +4846,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1851.373795869721</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,67 +5026,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047986</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061688</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M12" t="n">
-        <v>1778.261399527878</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N12" t="n">
-        <v>2122.782055165496</v>
+        <v>1961.218619068864</v>
       </c>
       <c r="O12" t="n">
         <v>2371.535469249458</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1490.202043630168</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1201.073404843726</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>946.3889166378392</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>656.9717466008786</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X13" t="n">
-        <v>428.9821957028613</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>802.0403666355641</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606512</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>110.0328757364142</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>110.0328757364142</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>110.0328757364142</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>110.0328757364142</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>110.0328757364142</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>110.0328757364142</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,10 +5454,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
@@ -5469,19 +5469,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227924</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>620.2426249169056</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W16" t="n">
-        <v>330.825454879945</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X16" t="n">
-        <v>102.8359039819276</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.8359039819276</v>
+        <v>110.0328757364142</v>
       </c>
     </row>
     <row r="17">
@@ -5497,49 +5497,49 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5591,22 +5591,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>1050.793780719526</v>
+        <v>829.3628462796264</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111987</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>434.3285960683722</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352016</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1064.759190940159</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>836.7696400421421</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>615.977060898612</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5749,55 +5749,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>573.0408857904611</v>
       </c>
       <c r="L21" t="n">
-        <v>674.4285624571611</v>
+        <v>573.0408857904611</v>
       </c>
       <c r="M21" t="n">
-        <v>1442.796708849623</v>
+        <v>1341.409032182923</v>
       </c>
       <c r="N21" t="n">
-        <v>2247.208287113774</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="O21" t="n">
-        <v>2247.208287113774</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P21" t="n">
-        <v>2429.851764727125</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>356.6647764207315</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C22" t="n">
-        <v>356.6647764207315</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609669</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>731.31772835508</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181194</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="X22" t="n">
-        <v>356.6647764207315</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y22" t="n">
-        <v>356.6647764207315</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,46 +5974,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>436.8967109626369</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L24" t="n">
         <v>1050.793780719526</v>
       </c>
       <c r="M24" t="n">
-        <v>1819.161927111987</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,19 +6165,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U25" t="n">
         <v>1090.100879744681</v>
@@ -6189,10 +6189,10 @@
         <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>318.009670603816</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6217,37 +6217,37 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,28 +6293,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>385.5899330013841</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>385.5899330013841</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>385.5899330013841</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>385.5899330013841</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>385.5899330013841</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6387,13 +6387,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383447</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0071030383447</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>385.5899330013841</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>385.5899330013841</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>385.5899330013841</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,19 +6457,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606512</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1308.854947839649</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>765.0418208473204</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6715,22 +6715,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,28 +6876,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571611</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606512</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>503.3281774570677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471244</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557908</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347414</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609719</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>731.317728355085</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>731.317728355085</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>503.3281774570677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>503.3281774570677</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7186,19 +7186,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606512</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>959.9120798353694</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,16 +7405,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7426,13 +7426,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571611</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606512</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7663,13 +7663,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,22 +7715,22 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
         <v>1288.32563221405</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557903</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9020,7 +9020,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9257,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9740,7 +9740,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>212.9204763999317</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>174.269355785512</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>136.2262019341691</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>108.8451328388531</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>5.89572329341911</v>
       </c>
       <c r="X22" t="n">
-        <v>141.3262313106231</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>29.91828370522651</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338525</v>
+        <v>33.38685156731836</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>60.24628162659538</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>60.50836597066561</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>130.6844047393602</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885326</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
+        <v>606095.0425934489</v>
+      </c>
+      <c r="F2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="G2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>606095.0425934483</v>
       </c>
-      <c r="G2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="H2" t="n">
-        <v>606095.0425934485</v>
-      </c>
       <c r="I2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="J2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="L2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="M2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="N2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="O2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="P2" t="n">
         <v>606095.0425934487</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="O2" t="n">
-        <v>606095.0425934482</v>
-      </c>
-      <c r="P2" t="n">
-        <v>606095.0425934484</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338374</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905757999</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905757987</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905757999</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905757986</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="L4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="M4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758697</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758064</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-175578.7248137533</v>
       </c>
       <c r="C6" t="n">
-        <v>414389.1544007912</v>
+        <v>414389.154400791</v>
       </c>
       <c r="D6" t="n">
         <v>414389.1544007912</v>
       </c>
       <c r="E6" t="n">
-        <v>-12814.70478246213</v>
+        <v>-11937.57264871191</v>
       </c>
       <c r="F6" t="n">
-        <v>512345.3316944342</v>
+        <v>513222.4638281838</v>
       </c>
       <c r="G6" t="n">
-        <v>512345.3316944343</v>
+        <v>513222.4638281839</v>
       </c>
       <c r="H6" t="n">
-        <v>512345.3316944345</v>
+        <v>513222.4638281837</v>
       </c>
       <c r="I6" t="n">
-        <v>512345.3316944343</v>
+        <v>513222.4638281837</v>
       </c>
       <c r="J6" t="n">
-        <v>335922.1125018415</v>
+        <v>336799.2446355909</v>
       </c>
       <c r="K6" t="n">
-        <v>512345.3316944345</v>
+        <v>513222.4638281838</v>
       </c>
       <c r="L6" t="n">
-        <v>512345.3316944343</v>
+        <v>513222.4638281838</v>
       </c>
       <c r="M6" t="n">
-        <v>377544.316460597</v>
+        <v>378421.4485943467</v>
       </c>
       <c r="N6" t="n">
-        <v>512345.3316944342</v>
+        <v>513222.4638281839</v>
       </c>
       <c r="O6" t="n">
-        <v>512345.331694434</v>
+        <v>513222.4638281839</v>
       </c>
       <c r="P6" t="n">
-        <v>512345.3316944344</v>
+        <v>513222.463828184</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26798,19 +26798,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26822,13 +26822,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990184</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>95.43636485139621</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27438,10 +27438,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>104.2975180742064</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114808</v>
+        <v>20.3353292038779</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>112.7158160373407</v>
+        <v>58.23741346252899</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>24.62049154535623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>150.3569555942789</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>74.74425144011354</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>125.566801220841</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>61.04368814949335</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31615,28 +31615,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>195.5988322391989</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>339.3147979156451</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>163.1953899965973</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>353.0329386354462</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6051223555639</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32104,10 +32104,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>147.8809216101167</v>
+        <v>212.6301886270623</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,22 +32548,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>186.0050829494701</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>125.5830122582669</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,22 +32785,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>48.48571443651636</v>
+        <v>48.48571443651693</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32812,13 +32812,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946974</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,22 +33022,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>147.8809216101172</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555644</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33049,13 +33049,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,22 +33259,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555639</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33286,13 +33286,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,22 +33496,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555644</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33523,13 +33523,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,22 +33733,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555639</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33760,13 +33760,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,22 +33970,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555639</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33997,13 +33997,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,22 +34207,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555639</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34234,13 +34234,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,22 +34444,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555644</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34471,13 +34471,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.29709682323549</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>543.5994944994192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>662.8858277436267</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>414.4614648288824</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>585.3189041590311</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6057846157842</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>380.1668871337017</v>
+        <v>444.9161541506473</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>312.6288809876897</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.6785259080945</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>175.109512474736</v>
+        <v>175.1095124747365</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594837</v>
+        <v>380.1668871337022</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157846</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157842</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157846</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004663</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157842</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789776</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157842</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157842</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157846</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
